--- a/scimagojr/scimagojr_2011.xlsx
+++ b/scimagojr/scimagojr_2011.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="247">
   <si>
     <t>Rank</t>
   </si>
@@ -218,12 +218,12 @@
     <t>Nigeria</t>
   </si>
   <si>
+    <t>Colombia</t>
+  </si>
+  <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
@@ -269,12 +269,12 @@
     <t>Venezuela</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -311,21 +311,21 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -365,12 +365,12 @@
     <t>Senegal</t>
   </si>
   <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -389,15 +389,15 @@
     <t>Panama</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>Moldova</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>Côte d’Ivoire</t>
   </si>
   <si>
@@ -449,15 +449,15 @@
     <t>Brunei Darussalam</t>
   </si>
   <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
     <t>Gabon</t>
   </si>
   <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
@@ -506,24 +506,24 @@
     <t>Afghanistan</t>
   </si>
   <si>
+    <t>Gambia</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Grenada</t>
   </si>
   <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
     <t>Tajikistan</t>
   </si>
   <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
@@ -536,12 +536,12 @@
     <t>Guam</t>
   </si>
   <si>
+    <t>Haïti</t>
+  </si>
+  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>Haïti</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -566,36 +566,36 @@
     <t>Faroe Islands</t>
   </si>
   <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
+    <t>Bahamas</t>
   </si>
   <si>
     <t>Eritrea</t>
   </si>
   <si>
-    <t>Lesotho</t>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
   </si>
   <si>
     <t>Cayman Islands</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -632,12 +632,12 @@
     <t>Samoa</t>
   </si>
   <si>
+    <t>Aruba</t>
+  </si>
+  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Aruba</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
@@ -647,21 +647,21 @@
     <t>Virgin Islands (British)</t>
   </si>
   <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Suriname</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
     <t>San Marino</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
@@ -671,88 +671,91 @@
     <t>Somalia</t>
   </si>
   <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
     <t>Andorra</t>
   </si>
   <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>American Samoa</t>
+    <t>Cook Islands</t>
   </si>
   <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
-    <t>Cook Islands</t>
+    <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>Palau</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
     <t>Cape Verde</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
     <t>Vatican City State</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Republic of South Sudan</t>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Nauru</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
     <t>Norfolk Island</t>
   </si>
   <si>
-    <t>Cocos (Keeling) Islands</t>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
   </si>
   <si>
     <t>Heard Island and McDonald Islands</t>
   </si>
   <si>
     <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -896,22 +899,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>624646</v>
+        <v>628804</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>537789</v>
+        <v>537069</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>19505738</v>
+        <v>23161631</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8318616</v>
+        <v>9431623</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>31.23</v>
+        <v>36.83</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -925,22 +928,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>394330</v>
+        <v>389697</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>384883</v>
+        <v>384764</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5566379</v>
+        <v>6476729</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3078304</v>
+        <v>3538454</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.12</v>
+        <v>16.62</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -954,22 +957,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>179108</v>
+        <v>180700</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>146730</v>
+        <v>147220</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5482860</v>
+        <v>6507333</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1217888</v>
+        <v>1365425</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>30.61</v>
+        <v>36.01</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -983,22 +986,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>157631</v>
+        <v>158058</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>142944</v>
+        <v>143328</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4550851</v>
+        <v>5335475</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1077616</v>
+        <v>1187846</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>28.87</v>
+        <v>33.76</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1012,22 +1015,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>132581</v>
+        <v>132458</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>125679</v>
+        <v>125731</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2631519</v>
+        <v>3085376</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>628648</v>
+        <v>693024</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>19.85</v>
+        <v>23.29</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1041,22 +1044,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>111756</v>
+        <v>111855</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>102545</v>
+        <v>102668</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3096376</v>
+        <v>3643866</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>606196</v>
+        <v>665605</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>27.71</v>
+        <v>32.58</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1070,22 +1073,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>99089</v>
+        <v>99015</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>92486</v>
+        <v>92548</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1527257</v>
+        <v>1833217</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>517691</v>
+        <v>624216</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>15.41</v>
+        <v>18.51</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1099,22 +1102,22 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>94648</v>
+        <v>95142</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>83273</v>
+        <v>83299</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3059060</v>
+        <v>3648797</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>500867</v>
+        <v>560980</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>32.32</v>
+        <v>38.35</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1128,22 +1131,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>90603</v>
+        <v>90579</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>81553</v>
+        <v>81664</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2465935</v>
+        <v>2881227</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>569726</v>
+        <v>631011</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>27.22</v>
+        <v>31.81</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1157,22 +1160,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>79961</v>
+        <v>79927</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>72799</v>
+        <v>72897</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2133097</v>
+        <v>2501079</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>437543</v>
+        <v>483350</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>26.68</v>
+        <v>31.29</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1186,22 +1189,22 @@
         <v>23</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>76011</v>
+        <v>76458</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>66154</v>
+        <v>66280</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2322794</v>
+        <v>2764277</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>472467</v>
+        <v>525895</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>30.56</v>
+        <v>36.15</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1215,22 +1218,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>66919</v>
+        <v>66816</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>64673</v>
+        <v>64765</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1427988</v>
+        <v>1661923</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>261747</v>
+        <v>283561</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>21.34</v>
+        <v>24.87</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1244,22 +1247,22 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>55649</v>
+        <v>55634</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>52479</v>
+        <v>52495</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>961533</v>
+        <v>1134059</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>325581</v>
+        <v>367325</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>17.28</v>
+        <v>20.38</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1273,22 +1276,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>52667</v>
+        <v>52892</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>46237</v>
+        <v>46316</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2045215</v>
+        <v>2427257</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>294751</v>
+        <v>323168</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>38.83</v>
+        <v>45.89</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1302,22 +1305,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>44129</v>
+        <v>44112</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>42595</v>
+        <v>42639</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>490974</v>
+        <v>568469</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>175269</v>
+        <v>195390</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>11.13</v>
+        <v>12.89</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1331,22 +1334,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>43503</v>
+        <v>43417</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>41844</v>
+        <v>41864</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>821024</v>
+        <v>957025</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>137518</v>
+        <v>147462</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>18.87</v>
+        <v>22.04</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1360,22 +1363,22 @@
         <v>32</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>39998</v>
+        <v>39901</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>38926</v>
+        <v>38944</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>592459</v>
+        <v>703031</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>190992</v>
+        <v>211516</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>14.81</v>
+        <v>17.62</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1389,22 +1392,22 @@
         <v>14</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>38351</v>
+        <v>38428</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>34629</v>
+        <v>34663</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1572556</v>
+        <v>1851030</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>185957</v>
+        <v>201802</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>41</v>
+        <v>48.17</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1418,22 +1421,22 @@
         <v>32</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>35013</v>
+        <v>35038</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>33005</v>
+        <v>33063</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>527711</v>
+        <v>632680</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>111882</v>
+        <v>128226</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>15.07</v>
+        <v>18.06</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1447,22 +1450,22 @@
         <v>29</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>33442</v>
+        <v>33473</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>31780</v>
+        <v>31817</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>525424</v>
+        <v>608541</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>128393</v>
+        <v>139728</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>15.71</v>
+        <v>18.18</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1476,22 +1479,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>32809</v>
+        <v>32844</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>29695</v>
+        <v>29688</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1172620</v>
+        <v>1379047</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>161762</v>
+        <v>176969</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>35.74</v>
+        <v>41.99</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1505,22 +1508,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>29130</v>
+        <v>29164</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>26218</v>
+        <v>26236</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>986846</v>
+        <v>1158998</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>119481</v>
+        <v>128241</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>33.88</v>
+        <v>39.74</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1534,22 +1537,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>21411</v>
+        <v>21512</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>19331</v>
+        <v>19376</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>669600</v>
+        <v>787536</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>78534</v>
+        <v>85326</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>31.27</v>
+        <v>36.61</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1563,22 +1566,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>20845</v>
+        <v>20850</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>20116</v>
+        <v>20132</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>322511</v>
+        <v>391512</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>79610</v>
+        <v>89031</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>15.47</v>
+        <v>18.78</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1592,22 +1595,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>20714</v>
+        <v>20790</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>18521</v>
+        <v>18559</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>823423</v>
+        <v>978042</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>115283</v>
+        <v>127917</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>39.75</v>
+        <v>47.04</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1621,22 +1624,22 @@
         <v>32</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>18667</v>
+        <v>18719</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>16540</v>
+        <v>16553</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>604236</v>
+        <v>712463</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>71177</v>
+        <v>78457</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>32.37</v>
+        <v>38.06</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1650,22 +1653,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>18648</v>
+        <v>18716</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>17125</v>
+        <v>17167</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>467794</v>
+        <v>554086</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>76012</v>
+        <v>83852</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>25.09</v>
+        <v>29.6</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1679,22 +1682,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>18595</v>
+        <v>18618</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>16635</v>
+        <v>16668</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>423650</v>
+        <v>499274</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>57909</v>
+        <v>63638</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>22.78</v>
+        <v>26.82</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1708,22 +1711,22 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>18572</v>
+        <v>18577</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>17657</v>
+        <v>17674</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>329821</v>
+        <v>381319</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>67287</v>
+        <v>72138</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>17.76</v>
+        <v>20.53</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1737,22 +1740,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>17467</v>
+        <v>17515</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>15394</v>
+        <v>15422</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>593657</v>
+        <v>712983</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>77119</v>
+        <v>85341</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>33.99</v>
+        <v>40.71</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1766,22 +1769,22 @@
         <v>26</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>17351</v>
+        <v>17381</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>16207</v>
+        <v>16260</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>318895</v>
+        <v>377842</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>59080</v>
+        <v>67220</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>18.38</v>
+        <v>21.74</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1795,22 +1798,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>17314</v>
+        <v>17340</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>15812</v>
+        <v>15835</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>535444</v>
+        <v>628483</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>74355</v>
+        <v>80784</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>30.93</v>
+        <v>36.24</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1824,22 +1827,22 @@
         <v>12</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>16861</v>
+        <v>16910</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>15203</v>
+        <v>15209</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>569920</v>
+        <v>663875</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>54402</v>
+        <v>57669</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>33.8</v>
+        <v>39.26</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1853,22 +1856,22 @@
         <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>16307</v>
+        <v>16309</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>14888</v>
+        <v>14905</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>513654</v>
+        <v>613160</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>56860</v>
+        <v>61759</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>31.5</v>
+        <v>37.6</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1882,22 +1885,22 @@
         <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>14557</v>
+        <v>14639</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>13081</v>
+        <v>13122</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>330700</v>
+        <v>392731</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>70625</v>
+        <v>80011</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>22.72</v>
+        <v>26.83</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1911,22 +1914,22 @@
         <v>23</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>13819</v>
+        <v>13863</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>12073</v>
+        <v>12103</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>385147</v>
+        <v>465056</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>50885</v>
+        <v>56348</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>27.87</v>
+        <v>33.55</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1940,22 +1943,22 @@
         <v>29</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>13724</v>
+        <v>13748</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>13282</v>
+        <v>13311</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>145931</v>
+        <v>169286</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>31598</v>
+        <v>34317</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>10.63</v>
+        <v>12.31</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1969,22 +1972,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>12962</v>
+        <v>13076</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>399680</v>
+        <v>471461</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>39392</v>
+        <v>42790</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>30.83</v>
+        <v>36.06</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1998,22 +2001,22 @@
         <v>26</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>11834</v>
+        <v>11827</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>10884</v>
+        <v>10898</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>255732</v>
+        <v>301316</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>48285</v>
+        <v>54555</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>21.61</v>
+        <v>25.48</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2027,22 +2030,22 @@
         <v>57</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>11302</v>
+        <v>11264</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>10871</v>
+        <v>10878</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>208714</v>
+        <v>251011</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>38663</v>
+        <v>45079</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>18.47</v>
+        <v>22.28</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2056,22 +2059,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>10920</v>
+        <v>10907</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>10267</v>
+        <v>10266</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>210586</v>
+        <v>251137</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>31136</v>
+        <v>35374</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>19.28</v>
+        <v>23.03</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2085,22 +2088,22 @@
         <v>29</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>10171</v>
+        <v>10208</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>9403</v>
+        <v>9413</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>206885</v>
+        <v>240058</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>30616</v>
+        <v>33338</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>20.34</v>
+        <v>23.52</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2114,22 +2117,22 @@
         <v>32</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>9623</v>
+        <v>9594</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>9189</v>
+        <v>9194</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>228751</v>
+        <v>272834</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>32238</v>
+        <v>36746</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>23.77</v>
+        <v>28.44</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2143,22 +2146,22 @@
         <v>12</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>9337</v>
+        <v>9323</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>8957</v>
+        <v>8970</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>142905</v>
+        <v>172472</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>35120</v>
+        <v>40643</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>15.31</v>
+        <v>18.5</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2172,22 +2175,22 @@
         <v>29</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>8406</v>
+        <v>8407</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>8109</v>
+        <v>8124</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>100582</v>
+        <v>116408</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>23879</v>
+        <v>26487</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>11.97</v>
+        <v>13.85</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2201,22 +2204,22 @@
         <v>26</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>7893</v>
+        <v>7913</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>7500</v>
+        <v>7528</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>186144</v>
+        <v>217746</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>35714</v>
+        <v>39927</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>23.58</v>
+        <v>27.52</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2230,22 +2233,22 @@
         <v>29</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>6657</v>
+        <v>6672</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>6379</v>
+        <v>6398</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>101770</v>
+        <v>119346</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>16045</v>
+        <v>17708</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>15.29</v>
+        <v>17.89</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2259,22 +2262,22 @@
         <v>29</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>6559</v>
+        <v>6550</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>6255</v>
+        <v>6262</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>94845</v>
+        <v>110464</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>20319</v>
+        <v>21953</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>14.46</v>
+        <v>16.86</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2288,22 +2291,22 @@
         <v>51</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>6109</v>
+        <v>6112</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>69368</v>
+        <v>85864</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>13353</v>
+        <v>16390</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>11.36</v>
+        <v>14.05</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2314,25 +2317,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>5791</v>
+        <v>5819</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>5490</v>
+        <v>5505</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>109317</v>
+        <v>122328</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>16762</v>
+        <v>18878</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>18.88</v>
+        <v>21.02</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2343,25 +2346,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>5746</v>
+        <v>5802</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>5421</v>
+        <v>5501</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>103191</v>
+        <v>127446</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>16718</v>
+        <v>18111</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>17.96</v>
+        <v>21.97</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>356</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2375,22 +2378,22 @@
         <v>29</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>5671</v>
+        <v>5667</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>5417</v>
+        <v>5419</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>80388</v>
+        <v>93224</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>15570</v>
+        <v>16780</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>14.18</v>
+        <v>16.45</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2404,22 +2407,22 @@
         <v>51</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>5364</v>
+        <v>5354</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>5119</v>
+        <v>5126</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>78100</v>
+        <v>93344</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>14016</v>
+        <v>15714</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>14.56</v>
+        <v>17.43</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2433,22 +2436,22 @@
         <v>29</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>3855</v>
+        <v>3864</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>3630</v>
+        <v>3640</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>60396</v>
+        <v>70511</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>8529</v>
+        <v>9325</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>15.67</v>
+        <v>18.25</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2462,22 +2465,22 @@
         <v>51</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>3657</v>
+        <v>3653</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>41496</v>
+        <v>49361</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>9070</v>
+        <v>10461</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>11.35</v>
+        <v>13.51</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2491,22 +2494,22 @@
         <v>12</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>3532</v>
+        <v>3564</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>3336</v>
+        <v>3373</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>57200</v>
+        <v>69417</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>10363</v>
+        <v>12579</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>16.19</v>
+        <v>19.48</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2520,22 +2523,22 @@
         <v>29</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>3209</v>
+        <v>3227</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>3120</v>
+        <v>3139</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>44919</v>
+        <v>52179</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>8871</v>
+        <v>9495</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>14</v>
+        <v>16.17</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2549,22 +2552,22 @@
         <v>51</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>3052</v>
+        <v>3043</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>39277</v>
+        <v>46387</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>7824</v>
+        <v>9158</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>12.87</v>
+        <v>15.24</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2581,19 +2584,19 @@
         <v>2833</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2633</v>
+        <v>2628</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>52889</v>
+        <v>63488</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>4706</v>
+        <v>5367</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>18.67</v>
+        <v>22.41</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2607,22 +2610,22 @@
         <v>12</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>41574</v>
+        <v>50590</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>7506</v>
+        <v>8778</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>15.87</v>
+        <v>19.34</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2636,22 +2639,22 @@
         <v>32</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2434</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>34473</v>
+        <v>41855</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>4420</v>
+        <v>5229</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>13.72</v>
+        <v>16.68</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2665,22 +2668,22 @@
         <v>12</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2426</v>
+        <v>2419</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>48076</v>
+        <v>57133</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>7428</v>
+        <v>8440</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>19.82</v>
+        <v>23.62</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2694,22 +2697,22 @@
         <v>29</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2366</v>
+        <v>2375</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>63386</v>
+        <v>73475</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>9682</v>
+        <v>10331</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>26.79</v>
+        <v>30.94</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2723,22 +2726,22 @@
         <v>26</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>2322</v>
+        <v>2327</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>25077</v>
+        <v>29692</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>3683</v>
+        <v>4066</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>10.8</v>
+        <v>12.76</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2752,22 +2755,22 @@
         <v>51</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1824</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>65981</v>
+        <v>78557</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>9025</v>
+        <v>10184</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>32.19</v>
+        <v>38.34</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2781,22 +2784,22 @@
         <v>26</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>25529</v>
+        <v>30108</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>2424</v>
+        <v>2679</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>12.71</v>
+        <v>14.99</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2810,22 +2813,22 @@
         <v>29</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1663</v>
+        <v>1691</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>17832</v>
+        <v>25229</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>3036</v>
+        <v>5327</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>10.31</v>
+        <v>14.55</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2839,22 +2842,22 @@
         <v>29</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>22574</v>
+        <v>20556</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>5117</v>
+        <v>3253</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>13.05</v>
+        <v>11.86</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2868,22 +2871,22 @@
         <v>12</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>42823</v>
+        <v>51079</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4343</v>
+        <v>4980</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>25.73</v>
+        <v>30.73</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2897,22 +2900,22 @@
         <v>14</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1490</v>
+        <v>1496</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>37696</v>
+        <v>43873</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4930</v>
+        <v>5290</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>22.93</v>
+        <v>26.61</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2926,22 +2929,22 @@
         <v>32</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1509</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>32921</v>
+        <v>39214</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2969</v>
+        <v>3262</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>20.4</v>
+        <v>24.28</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2955,22 +2958,22 @@
         <v>26</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>39482</v>
+        <v>47190</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>3920</v>
+        <v>4582</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>30.12</v>
+        <v>35.7</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2984,22 +2987,22 @@
         <v>32</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>20417</v>
+        <v>24388</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1547</v>
+        <v>1730</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>15.83</v>
+        <v>18.86</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3013,22 +3016,22 @@
         <v>14</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>31983</v>
+        <v>37290</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>2945</v>
+        <v>3079</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>25.12</v>
+        <v>29.2</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3042,22 +3045,22 @@
         <v>14</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>54310</v>
+        <v>63300</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>4626</v>
+        <v>5117</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>43.07</v>
+        <v>50.12</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3071,22 +3074,22 @@
         <v>32</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>11935</v>
+        <v>14919</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2273</v>
+        <v>2977</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>10.49</v>
+        <v>13.18</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3100,22 +3103,22 @@
         <v>32</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>17918</v>
+        <v>21824</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1960</v>
+        <v>2203</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>16.03</v>
+        <v>19.45</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3129,22 +3132,22 @@
         <v>26</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>27558</v>
+        <v>33025</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>3447</v>
+        <v>3908</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>25.14</v>
+        <v>30.08</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3161,19 +3164,19 @@
         <v>1087</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>22568</v>
+        <v>27899</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>5888</v>
+        <v>7431</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>20.76</v>
+        <v>25.67</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3187,22 +3190,22 @@
         <v>51</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>32225</v>
+        <v>37826</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>4903</v>
+        <v>5627</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>29.95</v>
+        <v>34.86</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3216,22 +3219,22 @@
         <v>29</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1042</v>
+        <v>1068</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>995</v>
+        <v>890</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>21093</v>
+        <v>21721</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>4549</v>
+        <v>3755</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>20.24</v>
+        <v>20.34</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3245,22 +3248,22 @@
         <v>29</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>887</v>
+        <v>996</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>19223</v>
+        <v>23236</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>3561</v>
+        <v>4749</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>18.59</v>
+        <v>22.3</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3274,22 +3277,22 @@
         <v>51</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>21598</v>
+        <v>26585</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>3363</v>
+        <v>4131</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>20.97</v>
+        <v>25.71</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3300,25 +3303,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>16210</v>
+        <v>35466</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1945</v>
+        <v>4642</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>16.31</v>
+        <v>35.5</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3329,25 +3332,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>30186</v>
+        <v>19785</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>4056</v>
+        <v>2301</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>30.55</v>
+        <v>19.9</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>205</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3361,22 +3364,22 @@
         <v>26</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>28530</v>
+        <v>32779</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1193</v>
+        <v>1304</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>29.02</v>
+        <v>33.62</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3390,22 +3393,22 @@
         <v>32</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>20905</v>
+        <v>24716</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>2154</v>
+        <v>2308</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>21.6</v>
+        <v>25.64</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3419,22 +3422,22 @@
         <v>29</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>9131</v>
+        <v>10242</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1799</v>
+        <v>1988</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>9.83</v>
+        <v>11.06</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3448,22 +3451,22 @@
         <v>51</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>17192</v>
+        <v>19961</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>3147</v>
+        <v>3731</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>19.4</v>
+        <v>22.58</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3477,22 +3480,22 @@
         <v>29</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>6837</v>
+        <v>8008</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>708</v>
+        <v>783</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>8.13</v>
+        <v>9.44</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3506,22 +3509,22 @@
         <v>12</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>726</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>13166</v>
+        <v>16038</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1890</v>
+        <v>2203</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>16.56</v>
+        <v>20.15</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3535,22 +3538,22 @@
         <v>29</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>7658</v>
+        <v>9213</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>853</v>
+        <v>943</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>10.17</v>
+        <v>12.15</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3564,22 +3567,22 @@
         <v>12</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>12864</v>
+        <v>15120</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1823</v>
+        <v>1938</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>17.6</v>
+        <v>20.57</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3593,22 +3596,22 @@
         <v>26</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>18248</v>
+        <v>21750</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1653</v>
+        <v>1838</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>28.29</v>
+        <v>33.62</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3625,19 +3628,19 @@
         <v>596</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>5569</v>
+        <v>6769</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1305</v>
+        <v>1675</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>9.34</v>
+        <v>11.36</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3657,16 +3660,16 @@
         <v>558</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>8457</v>
+        <v>10313</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>893</v>
+        <v>999</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>14.31</v>
+        <v>17.45</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3680,22 +3683,22 @@
         <v>12</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>5042</v>
+        <v>6060</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1200</v>
+        <v>1391</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3709,22 +3712,22 @@
         <v>51</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>537</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>10136</v>
+        <v>11854</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1171</v>
+        <v>1246</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>17.63</v>
+        <v>20.65</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3735,25 +3738,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>505</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>8105</v>
+        <v>15514</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>577</v>
+        <v>1882</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>16.05</v>
+        <v>30.72</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>130</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3764,25 +3767,25 @@
         <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>13077</v>
+        <v>9849</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1577</v>
+        <v>618</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>26.31</v>
+        <v>19.54</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>197</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3796,22 +3799,22 @@
         <v>51</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>13255</v>
+        <v>15327</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>824</v>
+        <v>995</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>29.59</v>
+        <v>34.37</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3825,22 +3828,22 @@
         <v>26</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>388</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>6286</v>
+        <v>7519</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>14.25</v>
+        <v>17.09</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3854,22 +3857,22 @@
         <v>51</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>17182</v>
+        <v>19664</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1727</v>
+        <v>1912</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>40.72</v>
+        <v>46.49</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3883,22 +3886,22 @@
         <v>32</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>5752</v>
+        <v>7004</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>14.27</v>
+        <v>17.47</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3912,22 +3915,22 @@
         <v>51</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>376</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>9792</v>
+        <v>11478</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1470</v>
+        <v>1679</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>24.79</v>
+        <v>29.13</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3941,22 +3944,22 @@
         <v>26</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>19741</v>
+        <v>23389</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1835</v>
+        <v>2007</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>50.1</v>
+        <v>59.97</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3967,25 +3970,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>381</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>4488</v>
+        <v>10934</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>886</v>
+        <v>613</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>11.78</v>
+        <v>28.7</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3996,25 +3999,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>380</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>9067</v>
+        <v>17344</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>560</v>
+        <v>1752</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>23.86</v>
+        <v>45.64</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>121</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4025,25 +4028,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>379</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>15038</v>
+        <v>5056</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>1540</v>
+        <v>947</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>39.68</v>
+        <v>13.34</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4057,22 +4060,22 @@
         <v>51</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>347</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>5577</v>
+        <v>6523</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>15.07</v>
+        <v>17.53</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4086,22 +4089,22 @@
         <v>14</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>8362</v>
+        <v>10294</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>606</v>
+        <v>651</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>22.66</v>
+        <v>27.97</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4115,22 +4118,22 @@
         <v>32</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>4251</v>
+        <v>5249</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>11.91</v>
+        <v>14.58</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4144,22 +4147,22 @@
         <v>51</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>297</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>6284</v>
+        <v>7493</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1108</v>
+        <v>1294</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>20.01</v>
+        <v>23.79</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4173,22 +4176,22 @@
         <v>51</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>282</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>11396</v>
+        <v>13095</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>1063</v>
+        <v>1191</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>37.24</v>
+        <v>42.52</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4202,22 +4205,22 @@
         <v>29</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>2225</v>
+        <v>2679</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>7.7</v>
+        <v>9.11</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4231,22 +4234,22 @@
         <v>51</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>271</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>3031</v>
+        <v>3656</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>10.67</v>
+        <v>12.96</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4266,16 +4269,16 @@
         <v>266</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>4412</v>
+        <v>5321</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>16.16</v>
+        <v>19.49</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4295,16 +4298,16 @@
         <v>245</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>7264</v>
+        <v>8679</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>27.73</v>
+        <v>33.13</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4324,16 +4327,16 @@
         <v>245</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>5896</v>
+        <v>6882</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>22.59</v>
+        <v>26.37</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4347,22 +4350,22 @@
         <v>12</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>246</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>4237</v>
+        <v>5116</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>613</v>
+        <v>710</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>16.3</v>
+        <v>19.75</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4376,22 +4379,22 @@
         <v>51</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>6504</v>
+        <v>7631</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>823</v>
+        <v>944</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>25.81</v>
+        <v>30.16</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4405,22 +4408,22 @@
         <v>29</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>238</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2774</v>
+        <v>3233</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>11.46</v>
+        <v>13.3</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4434,22 +4437,22 @@
         <v>51</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>209</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>8064</v>
+        <v>9225</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>796</v>
+        <v>858</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>35.21</v>
+        <v>40.46</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4463,22 +4466,22 @@
         <v>12</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>190</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>6632</v>
+        <v>7642</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>728</v>
+        <v>788</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>29.74</v>
+        <v>34.12</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4498,16 +4501,16 @@
         <v>209</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>5622</v>
+        <v>6461</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>25.21</v>
+        <v>28.97</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4527,16 +4530,16 @@
         <v>139</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2290</v>
+        <v>2773</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>12.87</v>
+        <v>15.58</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4547,25 +4550,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>6151</v>
+        <v>4031</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>36.18</v>
+        <v>23.57</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4576,25 +4579,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>169</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>3328</v>
+        <v>5419</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>324</v>
+        <v>449</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>19.69</v>
+        <v>32.07</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4611,19 +4614,19 @@
         <v>169</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>4665</v>
+        <v>7124</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>394</v>
+        <v>512</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>27.6</v>
+        <v>42.15</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4637,22 +4640,22 @@
         <v>12</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>158</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1969</v>
+        <v>2389</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>11.65</v>
+        <v>14.22</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4666,22 +4669,22 @@
         <v>12</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>147</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>3549</v>
+        <v>4128</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>22.32</v>
+        <v>26.29</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4698,19 +4701,19 @@
         <v>155</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>4015</v>
+        <v>4674</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>25.9</v>
+        <v>30.15</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4730,16 +4733,16 @@
         <v>136</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>3424</v>
+        <v>3990</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>23.45</v>
+        <v>27.33</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4753,22 +4756,22 @@
         <v>26</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>3447</v>
+        <v>4127</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>23.94</v>
+        <v>28.46</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4782,22 +4785,22 @@
         <v>51</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>3588</v>
+        <v>4331</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>24.92</v>
+        <v>30.5</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4811,22 +4814,22 @@
         <v>26</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>96</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>3079</v>
+        <v>3381</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>24.05</v>
+        <v>26.21</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4846,16 +4849,16 @@
         <v>116</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2658</v>
+        <v>3107</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>21.61</v>
+        <v>25.26</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4875,16 +4878,16 @@
         <v>107</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>5053</v>
+        <v>5806</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>43.19</v>
+        <v>49.62</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4898,22 +4901,22 @@
         <v>51</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>107</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2981</v>
+        <v>3580</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>26.38</v>
+        <v>32.25</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4927,22 +4930,22 @@
         <v>26</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>3301</v>
+        <v>3858</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>30.56</v>
+        <v>35.39</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4962,16 +4965,16 @@
         <v>100</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>3836</v>
+        <v>4551</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>35.85</v>
+        <v>42.53</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4991,16 +4994,16 @@
         <v>103</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1418</v>
+        <v>1655</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>13.25</v>
+        <v>15.47</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5020,16 +5023,16 @@
         <v>102</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1353</v>
+        <v>1621</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>12.76</v>
+        <v>15.29</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5043,22 +5046,22 @@
         <v>14</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>2223</v>
+        <v>2651</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>21.58</v>
+        <v>25.49</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5078,16 +5081,16 @@
         <v>87</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1310</v>
+        <v>1593</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>12.84</v>
+        <v>15.62</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5098,25 +5101,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>99</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2884</v>
+        <v>4531</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>29.13</v>
+        <v>45.77</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>77</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5127,25 +5130,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>3899</v>
+        <v>3357</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>39.79</v>
+        <v>33.91</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5165,16 +5168,16 @@
         <v>90</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>2294</v>
+        <v>2665</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>23.65</v>
+        <v>27.47</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5188,22 +5191,22 @@
         <v>26</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>77</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1907</v>
+        <v>2404</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>21.67</v>
+        <v>27.01</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5214,25 +5217,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>85</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>737</v>
+        <v>2851</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>8.67</v>
+        <v>33.54</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5243,25 +5246,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>2414</v>
+        <v>755</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>28.4</v>
+        <v>8.99</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5278,19 +5281,19 @@
         <v>82</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1940</v>
+        <v>2257</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>23.66</v>
+        <v>27.52</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5304,22 +5307,22 @@
         <v>14</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>74</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>3093</v>
+        <v>3700</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>39.15</v>
+        <v>47.44</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5339,16 +5342,16 @@
         <v>70</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>2265</v>
+        <v>2623</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>30.2</v>
+        <v>34.97</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5362,22 +5365,22 @@
         <v>23</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1128</v>
+        <v>1325</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>16.11</v>
+        <v>18.66</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5391,22 +5394,22 @@
         <v>26</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>869</v>
+        <v>2221</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>12.78</v>
+        <v>31.73</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5423,19 +5426,19 @@
         <v>68</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2012</v>
+        <v>1038</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>29.59</v>
+        <v>15.26</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5455,16 +5458,16 @@
         <v>53</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1901</v>
+        <v>2237</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>32.22</v>
+        <v>37.92</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5484,16 +5487,16 @@
         <v>51</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>712</v>
+        <v>814</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>13.19</v>
+        <v>15.07</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5513,16 +5516,16 @@
         <v>49</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>899</v>
+        <v>1110</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>16.96</v>
+        <v>20.94</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5542,16 +5545,16 @@
         <v>42</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1498</v>
+        <v>1859</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>33.29</v>
+        <v>41.31</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5571,16 +5574,16 @@
         <v>40</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1413</v>
+        <v>1661</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>32.11</v>
+        <v>37.75</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5600,16 +5603,16 @@
         <v>38</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>736</v>
+        <v>898</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>17.12</v>
+        <v>20.88</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5629,16 +5632,16 @@
         <v>37</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>597</v>
+        <v>691</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>14.21</v>
+        <v>16.45</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5658,16 +5661,16 @@
         <v>36</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1634</v>
+        <v>1968</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>41.9</v>
+        <v>50.46</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5681,22 +5684,22 @@
         <v>51</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1518</v>
+        <v>595</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>38.92</v>
+        <v>15.66</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5710,22 +5713,22 @@
         <v>51</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>519</v>
+        <v>626</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>13.66</v>
+        <v>16.92</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5745,16 +5748,16 @@
         <v>37</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>671</v>
+        <v>788</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>18.14</v>
+        <v>21.3</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5771,19 +5774,19 @@
         <v>36</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>600</v>
+        <v>1707</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>16.67</v>
+        <v>47.42</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5794,25 +5797,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>528</v>
+        <v>1316</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>14.67</v>
+        <v>37.6</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5823,25 +5826,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>486</v>
+        <v>701</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>13.89</v>
+        <v>20.03</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5852,25 +5855,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1094</v>
+        <v>671</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>31.26</v>
+        <v>19.17</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5890,16 +5893,16 @@
         <v>32</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>13.83</v>
+        <v>16.17</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5910,25 +5913,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>570</v>
+        <v>275</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>16.29</v>
+        <v>7.86</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5939,25 +5942,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>33</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>244</v>
+        <v>574</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>6.97</v>
+        <v>16.88</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5977,16 +5980,16 @@
         <v>29</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>995</v>
+        <v>1180</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>30.15</v>
+        <v>35.76</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6000,22 +6003,22 @@
         <v>51</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>763</v>
+        <v>982</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>23.84</v>
+        <v>29.76</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6035,16 +6038,16 @@
         <v>30</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>9.2</v>
+        <v>10.47</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6064,16 +6067,16 @@
         <v>28</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>536</v>
+        <v>639</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>20</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>18.48</v>
+        <v>22.03</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6093,16 +6096,16 @@
         <v>25</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>861</v>
+        <v>1042</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>33.12</v>
+        <v>40.08</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6122,16 +6125,16 @@
         <v>22</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>18.85</v>
+        <v>21.04</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6151,16 +6154,16 @@
         <v>23</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>11.68</v>
+        <v>14.32</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6180,16 +6183,16 @@
         <v>19</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>650</v>
+        <v>785</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>26</v>
+        <v>31.4</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6209,16 +6212,16 @@
         <v>20</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>19.13</v>
+        <v>22.08</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6238,16 +6241,16 @@
         <v>19</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>12.48</v>
+        <v>14.91</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6267,16 +6270,16 @@
         <v>23</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>786</v>
+        <v>909</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>34.17</v>
+        <v>39.52</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6296,16 +6299,16 @@
         <v>21</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>504</v>
+        <v>597</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>22.91</v>
+        <v>27.14</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6322,19 +6325,19 @@
         <v>18</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>539</v>
+        <v>211</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>29.94</v>
+        <v>11.72</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6351,19 +6354,19 @@
         <v>18</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>10.11</v>
+        <v>35.94</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6383,16 +6386,16 @@
         <v>18</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>428</v>
+        <v>530</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>23.78</v>
+        <v>29.44</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6412,16 +6415,16 @@
         <v>14</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>17.87</v>
+        <v>20.93</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6435,22 +6438,22 @@
         <v>26</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="G193" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>40.53</v>
+        <v>50.5</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6461,25 +6464,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>16.64</v>
+        <v>9.71</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6490,25 +6493,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>9</v>
+        <v>18.93</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6528,16 +6531,16 @@
         <v>12</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>455</v>
+        <v>552</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>37.92</v>
+        <v>46</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6548,25 +6551,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E197" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="G197" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F197" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="H197" s="0" t="n">
-        <v>13.67</v>
+        <v>17.92</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6577,25 +6580,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E198" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="G198" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F198" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="G198" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="H198" s="0" t="n">
-        <v>15.17</v>
+        <v>15.33</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6615,16 +6618,16 @@
         <v>9</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>13.92</v>
+        <v>15.42</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6644,16 +6647,16 @@
         <v>11</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>13.64</v>
+        <v>16.82</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6673,16 +6676,16 @@
         <v>7</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6693,25 +6696,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>184</v>
+        <v>534</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>18.4</v>
+        <v>53.4</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6722,25 +6725,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>46.6</v>
+        <v>9.22</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6757,19 +6760,19 @@
         <v>9</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>33.56</v>
+        <v>26.56</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6780,25 +6783,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>8.11</v>
+        <v>45.38</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6818,16 +6821,16 @@
         <v>8</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>3.63</v>
+        <v>48.38</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6847,16 +6850,16 @@
         <v>8</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>38.88</v>
+        <v>4.5</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6867,25 +6870,25 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>14.57</v>
+        <v>12.57</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6896,25 +6899,25 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>11.14</v>
+        <v>16.43</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6934,16 +6937,16 @@
         <v>6</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>3.33</v>
+        <v>5.33</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6954,25 +6957,25 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>35</v>
+        <v>20.8</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6983,22 +6986,22 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>27</v>
@@ -7012,7 +7015,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>5</v>
@@ -7021,16 +7024,16 @@
         <v>5</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>8.8</v>
+        <v>15.6</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7041,7 +7044,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>5</v>
@@ -7050,16 +7053,16 @@
         <v>5</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>38.6</v>
+        <v>42</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7070,25 +7073,25 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>18</v>
+        <v>11.8</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7099,25 +7102,25 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>4.8</v>
+        <v>49.8</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7128,25 +7131,25 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>48.33</v>
+        <v>5.33</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7166,16 +7169,16 @@
         <v>2</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7186,25 +7189,25 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>5</v>
+        <v>57.67</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7224,16 +7227,16 @@
         <v>2</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>4.33</v>
+        <v>5.33</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7244,7 +7247,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>2</v>
@@ -7253,16 +7256,16 @@
         <v>2</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7273,7 +7276,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>2</v>
@@ -7282,16 +7285,16 @@
         <v>2</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7302,7 +7305,7 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>1</v>
@@ -7311,16 +7314,16 @@
         <v>1</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7340,16 +7343,16 @@
         <v>1</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7378,7 +7381,7 @@
         <v>11</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7398,16 +7401,16 @@
         <v>1</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7418,7 +7421,7 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>1</v>
@@ -7427,16 +7430,16 @@
         <v>1</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7453,19 +7456,19 @@
         <v>1</v>
       </c>
       <c r="E228" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7476,7 +7479,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>1</v>
@@ -7485,16 +7488,45 @@
         <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
+      <c r="A230" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
